--- a/data/financial_statements/sofp/MAA.xlsx
+++ b/data/financial_statements/sofp/MAA.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -472,144 +583,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>54000000</v>
+        <v>53554000</v>
       </c>
       <c r="C2">
-        <v>222000000</v>
+        <v>221702000</v>
       </c>
       <c r="D2">
-        <v>73000000</v>
+        <v>72624000</v>
       </c>
       <c r="E2">
-        <v>131000000</v>
+        <v>130598000</v>
       </c>
       <c r="F2">
-        <v>42000000</v>
+        <v>41521000</v>
       </c>
       <c r="G2">
         <v>43004000</v>
@@ -715,8 +826,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>53554000</v>
@@ -837,23 +948,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>45000000</v>
+        <v>11002810000</v>
       </c>
       <c r="C4">
-        <v>46000000</v>
+        <v>10846810000</v>
       </c>
       <c r="D4">
-        <v>47000000</v>
+        <v>10873490000</v>
       </c>
       <c r="E4">
-        <v>47000000</v>
+        <v>10898900000</v>
       </c>
       <c r="F4">
-        <v>48000000</v>
+        <v>10932920000</v>
       </c>
       <c r="G4">
         <v>10982400000</v>
@@ -959,8 +1070,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1000000</v>
@@ -1024,23 +1135,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>171000000</v>
+        <v>281861000</v>
       </c>
       <c r="C6">
-        <v>97000000</v>
+        <v>211890000</v>
       </c>
       <c r="D6">
-        <v>92000000</v>
+        <v>252965000</v>
       </c>
       <c r="E6">
-        <v>94000000</v>
+        <v>255681000</v>
       </c>
       <c r="F6">
-        <v>181000000</v>
+        <v>237245000</v>
       </c>
       <c r="G6">
         <v>216715000</v>
@@ -1146,8 +1257,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>11284670000</v>
@@ -1268,23 +1379,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>11338000000</v>
+        <v>11338230000</v>
       </c>
       <c r="C8">
-        <v>11280000000</v>
+        <v>11280400000</v>
       </c>
       <c r="D8">
-        <v>11199000000</v>
+        <v>11199080000</v>
       </c>
       <c r="E8">
-        <v>11285000000</v>
+        <v>11285180000</v>
       </c>
       <c r="F8">
-        <v>11254000000</v>
+        <v>11254130000</v>
       </c>
       <c r="G8">
         <v>11242120000</v>
@@ -1390,8 +1501,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="V9">
         <v>17275000</v>
@@ -1449,8 +1560,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>647176000</v>
@@ -1571,8 +1682,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>125000000</v>
@@ -1612,8 +1723,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>647176000</v>
@@ -1734,23 +1845,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>4423000000</v>
+        <v>4519151000</v>
       </c>
       <c r="C13">
-        <v>4403000000</v>
+        <v>4518314000</v>
       </c>
       <c r="D13">
-        <v>4423000000</v>
+        <v>4537505000</v>
       </c>
       <c r="E13">
-        <v>4422000000</v>
+        <v>4516690000</v>
       </c>
       <c r="F13">
-        <v>4547000000</v>
+        <v>4540887000</v>
       </c>
       <c r="G13">
         <v>4553237000</v>
@@ -1856,8 +1967,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E14">
         <v>60000000</v>
@@ -1870,23 +1981,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>618000000</v>
+        <v>20145000</v>
       </c>
       <c r="C15">
-        <v>542000000</v>
+        <v>22403000</v>
       </c>
       <c r="D15">
-        <v>501000000</v>
+        <v>26857000</v>
       </c>
       <c r="E15">
-        <v>481000000</v>
+        <v>30185000</v>
       </c>
       <c r="F15">
-        <v>568000000</v>
+        <v>24323000</v>
       </c>
       <c r="G15">
         <v>21692000</v>
@@ -1992,8 +2103,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>4539296000</v>
@@ -2114,23 +2225,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>5166000000</v>
+        <v>5186472000</v>
       </c>
       <c r="C17">
-        <v>5090000000</v>
+        <v>5112285000</v>
       </c>
       <c r="D17">
-        <v>5069000000</v>
+        <v>5095713000</v>
       </c>
       <c r="E17">
-        <v>5101000000</v>
+        <v>5131275000</v>
       </c>
       <c r="F17">
-        <v>5139000000</v>
+        <v>5163802000</v>
       </c>
       <c r="G17">
         <v>5121453000</v>
@@ -2236,8 +2347,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>7196504000</v>
@@ -2358,8 +2469,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>9000</v>
@@ -2435,23 +2546,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>21000000</v>
+        <v>1152000</v>
       </c>
       <c r="C20">
-        <v>24000000</v>
+        <v>1152000</v>
       </c>
       <c r="D20">
-        <v>28000000</v>
+        <v>1151000</v>
       </c>
       <c r="E20">
-        <v>31000000</v>
+        <v>1151000</v>
       </c>
       <c r="F20">
-        <v>25000000</v>
+        <v>1149000</v>
       </c>
       <c r="G20">
         <v>1147000</v>
@@ -2557,23 +2668,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>-1220000000</v>
+        <v>-1219599000</v>
       </c>
       <c r="C21">
-        <v>-1199000000</v>
+        <v>-1199216000</v>
       </c>
       <c r="D21">
-        <v>-1269000000</v>
+        <v>-1268827000</v>
       </c>
       <c r="E21">
-        <v>-1256000000</v>
+        <v>-1255807000</v>
       </c>
       <c r="F21">
-        <v>-1310000000</v>
+        <v>-1309511000</v>
       </c>
       <c r="G21">
         <v>-1272694000</v>
@@ -2679,23 +2790,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>5988000000</v>
+        <v>6151746000</v>
       </c>
       <c r="C22">
-        <v>6006000000</v>
+        <v>6168107000</v>
       </c>
       <c r="D22">
-        <v>5947000000</v>
+        <v>6103353000</v>
       </c>
       <c r="E22">
-        <v>5995000000</v>
+        <v>6153898000</v>
       </c>
       <c r="F22">
-        <v>5921000000</v>
+        <v>6090321000</v>
       </c>
       <c r="G22">
         <v>6120658000</v>
@@ -2801,23 +2912,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>5988000000</v>
+        <v>6151755000</v>
       </c>
       <c r="C23">
-        <v>6006000000</v>
+        <v>6168116000</v>
       </c>
       <c r="D23">
-        <v>5947000000</v>
+        <v>6103362000</v>
       </c>
       <c r="E23">
-        <v>5995000000</v>
+        <v>6153907000</v>
       </c>
       <c r="F23">
-        <v>5921000000</v>
+        <v>6090330000</v>
       </c>
       <c r="G23">
         <v>6120667000</v>
@@ -2923,8 +3034,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>11338230000</v>
@@ -3045,8 +3156,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>118644000</v>
@@ -3167,8 +3278,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>868000</v>
@@ -3244,8 +3355,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>6151754000</v>
@@ -3366,23 +3477,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>4494000000</v>
+        <v>4590597000</v>
       </c>
       <c r="C28">
-        <v>4326000000</v>
+        <v>4441612000</v>
       </c>
       <c r="D28">
-        <v>4495000000</v>
+        <v>4609881000</v>
       </c>
       <c r="E28">
-        <v>4416000000</v>
+        <v>4511092000</v>
       </c>
       <c r="F28">
-        <v>4530000000</v>
+        <v>4524366000</v>
       </c>
       <c r="G28">
         <v>4863233000</v>
@@ -3488,23 +3599,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>4548000000</v>
+        <v>4644151000</v>
       </c>
       <c r="C29">
-        <v>4548000000</v>
+        <v>4663314000</v>
       </c>
       <c r="D29">
-        <v>4568000000</v>
+        <v>4682505000</v>
       </c>
       <c r="E29">
-        <v>4547000000</v>
+        <v>4641690000</v>
       </c>
       <c r="F29">
-        <v>4572000000</v>
+        <v>4565887000</v>
       </c>
       <c r="G29">
         <v>4906237000</v>
